--- a/500all/speech_level/speeches_CHRG-114hhrg95992.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95992.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. The Subcommittee on Government Operations will come to order.    And, without objection, the chair is authorized to declare a recess at any time.    For the past few years, Federal employees have had surveys that have revealed government-wide decline in employee engagement and satisfaction. We get these results from the Federal Employee Viewpoint Survey. It is an OPM-administered survey that reaches out to more than 800,000 Federal employees in 2014. And, of that number, nearly 400,000, which is an incredible number, replied. And this data was sorted by OPM to provide numbers and kind of useful metrics that we can look at in terms of employee satisfaction.    Ninety percent of the Federal employees surveyed are willing to put in the extra effort necessary to get the job done, an incredible number, and they consistently look for better ways to do the job. Yet, employee perception of agency leadership continues to decline, with only 42 percent of workers expressing confidence in their superiors. And that is from cabinet secretaries all the way to midlevel managers. And only 50 percent of employees had positive things to say about the integrity of their leadership, including communication and the ability to motivate their workforce.    This is a considerable decrease and should be a concern for agency leaders and raises questions about the priorities in managing our Nation's more than 2 million public servants.    Seven in ten workers said that their chance at a promotion is not based on merit, but on favoritism, something that is extremely troubling, I know, to me and the ranking member. Are agency leaders really doing enough is the question. Survey results from agencies that appear before us today suggest that not enough has been done.    Specifically, DHS and the Chemical Safety Board are consistently below government-wide averages for employee engagement and satisfaction. The Department of Homeland Security--and, Ms. Emerson, we will be hearing from you--the Department of Homeland Security rests as the worst place to work among cabinet agencies and saw its score drop by nearly 3 points from 2013. DHS had ranked 19 of 19 in terms of cabinet agencies on factors such as effective leadership, fairness, empowerment, and skills to match the mission.    Specifically, one that is near and dear to me, as I have mentioned to you previously, is that Secret Service employees ranked number 276 out of 315 among places to work. I continue to get emails from agents who are willing to give their life for the President and, yet, they are afraid to engage with supervisors in terms of making decisions.    So I say that we are having this hearing because this will not be the first of any hearing. This will be an ongoing--really, the ranking member and I believe that focusing on the great workforce that we have is critical. We have agreed to go out and meet with the rank and file on a regular basis to hear from them. And so, if the message is out there today, there is at least one Democrat and one Republican willing to look at what matters most to the hundreds of thousands of Federal workforce employees that serve our public every day.    From an National Archives standpoint, I want to just give a personal thank you for allowing me to come in and meet with some of the folks who are doing a job that really is part of history. As I went around to see the dedicated workers that are there, I got a real sense of their desire to serve sometimes in a very hot warehouse, sometimes in a place that is not necessarily the most glamorous in terms of working for, but, indeed, they are part of history.    And so I share that to say I have great hope that today Mr. Connolly and I will be able to embark and other members of this subcommittee will be able to embark on an effort that is not a hearing for TV or anything else, that it is a real hearing about a message that these surveys and their input matters. And we are going to put real pressure on those who don't perform.    I would be remiss in not saying, even though my opening statement was negative about DHS, that the Secretary of DHS just came by and had a meeting with Mr. Connolly and I and has laid out a number of steps on where he is wanting to address this particular concern for employee morale.    And so I thank all of the witnesses for being here today. And I look forward to a working relationship where we can work together to make sure that we have improved numbers, but, more importantly, improved satisfaction among our Federal workforce.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. And thank you for having this hearing.    And I know your commitment is quite sincere. You want to collaborate to make things better, not just cavil. And I think that is a really important point to be emphasized. And you and I most certainly will collaborate in trying to accomplish that. Because it is easy to complain or highlight problems. It is a lot more difficult to try to address them.    As you said, Mr. Chairman, the Secretary of Homeland Security cared enough about this topic to come see you and me prior to this hearing. And I would ask unanimous consent that the letter addressed to you and me written by the Secretary be entered into the record.</t>
   </si>
   <si>
@@ -82,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ferriero</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ferriero. Good morning.    Chairman Meadows, Ranking Member Connolly, and distinguished members of the committee, thank you for inviting me here today to discuss the National Archives and Records Administration and our ranking in the Partnership for Public Service's 2014 Best Places to Work in Federal Government.    My written testimony contains details of the many actions underway to address employee engagement and morale issues at the National Archives. What I would like to convey now to you and, more importantly, to any NARA staff member who may be watching this hearing is that I take the results of the annual Employee Viewpoint Survey very seriously and personally.    Much of the work that goes on behind the scenes at the Archives is hard, physical work in windowless facilities that lack amenities found in most Federal office settings. Believe me, I know. I began my career pulling and reshelving books and journals for long hours in the bowels of the libraries at MIT.    I have traveled to NARA facilities over the past few years and met with employees. What is most distressing to me is that many staff feel that they have felt undervalued and overworked for years. They're also rightfully frustrated by the simple facts that, over the past three decades, our holdings have more than tripled, customer expectations have changed dramatically, and electronic records requiring new resources, while at the same time our workforce numbers have declined.    We are far behind finding efficiencies to do more with less. The very nature of our work has changed to the point where employees of 30 years ago would not even recognize it. NARA staff work hard every day to continue to provide excellent service to our customers and preserve and manage our holdings, but the pressure does affect morale.    I inherited NARA's low EVS scores when I took this job 5 years ago. As you will see in my written testimony, much has been done to address the results of the survey. But because you invited me here today, you also know that positive change has been slow in coming.    We have adopted some of the newest and most innovative practices for engaging the Federal workforce, including the strategies in the recently released OMB memo on strengthening employee engagement and organizational performance and the six best practice strategies recommended by the Partnership for Public Service. These practices include holding executives accountable for executing engagement, improvement plans developed with staff, partnering with our labor union, and being transparent about our EVS results.    More importantly, we listened to staff and are following through with actions they identified as important to improving their satisfaction, including developing a cadre of motivated, well-trained supervisors, administering a fair and effective performance management system, providing meaningful career paths, creating a culture of respect and appreciation, and making workplace safety a priority, providing easy access to the tools employees need to do their jobs.    We have started to see the results of these efforts in our annual scores. In 2014, the majority of NARA employees responded positively to questions focused on the relationship with their supervisors, including trust, respect, and support. We have seen improvement in questions related to performance management and diversity and inclusion.    Our employees have consistently demonstrated their commitment to NARA's mission and work, and this is reflected in the EVS survey. They've also responded positively to questions that measure their perceptions of teamwork and quality of work. These are strengths that NARA must nurture and grow in order to build greater trust in agency leadership and pride in being part of our agency as a whole.    They deserve an agency that they can honestly call one of the best places to work in the Federal Government. I firmly believe that we are on the right path and that the future is bright for the National Archives. Millions of people visit our facilities and walk away full of pride, having been inspired by the history of our Nation.    Three thousand NARA employees make that experience possible. From those who are driving forklifts to those who are helping respond to more than 1 million annual requests, to help veterans claim benefits, to those who are caring for the Declaration of Independence, they all work for the common good of the National Archives and the citizens of our country, and we should all be proud and inspired by their service.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you so much for your testimony.    And I have been informed that it is streaming back to some of your employees. And so I know they take to heart your comments.    But I would be remiss if I don't say personally a real thank you to many of them for the hospitality that they showed me when I was visiting there and for the way that they treated me with not only such genuine hospitality, but frankness and support.    And I look forward to working with you. Thank you.    Mr. Ehrlich, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ehrlich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ehrlich. Thank you, sir.    Mr. Chairman, Ranking Member, and members of the subcommittee, thank you. Thank you for the opportunity to appear here today representing the U.S. Chemical Safety Board and the USB. We welcome your visitation to the agency with your colleagues so you have a better understanding of what we do and how we do it.    Since the CSB is recently without a chairperson, the agency for now is being run with three presidentially appointed board members, of whom I am one. Although we are working together, my views today are my own.    I came to the CSB with training and experience in human resource issues. I spent over 50 years in the chemical industry in a variety of positions, much of my career spent with BASF Corporation, the largest chemical company in the world. At BASF, I worked as a chemical plant manager and in many other roles.    I completed graduate studies in chemical engineering, and I have master's degrees from Columbia in counseling psychology for business and industry. I understand the issues related to some of these human behavior topics.    In the 5 months that I have served on the U.S. Chemical Safety Board, what has impressed me most is the dedication and professionalism of the staff. I have been to industrial chemical accident sites with investigation teams and have seen firsthand how diligently they perform potentially hazardous work, put in long hours, and spend months away from home. They have a steadfast commitment to making industrial chemical facilities safer places for workers, companies, and communities. I am privileged to work alongside them and the rest of the staff.    The Federal Viewpoint Survey does show CSB staff morale is low in some areas. The board is taking steps to improve morale, and I also believe there are critical steps that Congress can take to help. But the survey does not tell the whole story.    Since I became a board member, I have personally met with virtually every staff member face to face. I have listened to their concerns, sought their input on what we, as presidentially appointed board members, can do to show our appreciation for them. I have found commitment to the CSB mission and workplace to be very strong and morale in many areas is high.    The staff derives a great deal of job satisfaction in finalizing reports, presenting them to communities in public meetings and news conferences, and seeing their safety recommendations implemented. They tell me they get considerable job satisfaction in saving lives. That is the CSB mission, and we take it personally.    To address morale issues, the CSB has an active workplace improvement committee, members of which were suggested by the staff itself, which has been meeting regularly to suggest specific improvements. They have spoken to all staff members.    Since last summer, the committee has created action items on improving employee on-boarding, creating a database of CSB best practices, and clarifying employment policies, as they are now working to implement these action items.    I emphasize again that the core work is being accomplished. The CSB has been highly productive, particularly the past year, since the OPM survey was last conducted. The number of cases is now down to 7 from 22, the case backlog 5 years ago. We closed 2 more cases in a recently public meeting, and a total of 8 reports over a 9-month period. Despite the agency's challenges, we are in a period of very high productivity.    I will draw to a close by suggesting that morale could be improved even more if two things could happen. First, we need a chairperson confirmed. We need the ability to hire more investigators. Right now we have only 20 to cover the entire country, based on our current budget.    As a result, we frequently must pull investigators off of one investigation and put them in new ones on an ad hoc basis. This has caused more than a few morale problems. And investigation delays over the years has led to criticism. We do not let the quality of investigations falter. So additional resources are needed to perform the CSB's mission.    In summary, I would like to reiterate the following:Good work is being done at the CSB. We are productive. All of us whom the President appointed to the board are committed to working collegially to further improve morale. We look forward to working with you and other congressional committees to continue to serve the public. Thank you.</t>
   </si>
   <si>
@@ -106,18 +94,12 @@
     <t xml:space="preserve">    Mr. Meadows. Okay. Ms. Emerson.</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Emerson. Chairman Meadows, Ranking Member Connolly, members of the subcommittee, thank for the opportunity to appear before you today to address the Department of Homeland Security's efforts in enhancing employee engagement.    I am Catherine Emerson, the Department's first career Chief Human Capital Officer. I'm responsible for the Department's human capital policy, which covers recruiting, diversity inclusion, learning and development, and workforce planning in support of DHS's mission. My office supports employee engagement efforts led by Secretary Johnson and Deputy Secretary Mayorkas.    DHS employees stand on the front lines day in and day out to protect our citizens from threats at home and abroad. Our employees do difficult work under challenging circumstances, from protecting the border at the Rio Grande Valley to guiding maritime traffic on the Mississippi River, to managing shipments at the Port of Seattle, and welcoming visitors at the JFK International Airport.    Therefore, as the Deputy Secretary has stated, we must create the Department our employees deserve. We recognize that we must start with our leadership to improve employee morale. Employee engagement is not a human resources program. We see employee engagement as a leadership responsibility for the entire Department with human capital support.    Demonstrating this leadership responsibility, the Secretary and the Deputy Secretary launched the employee-focused Building the Department You Deserve initiative. Led by the Deputy Secretary and coordinated through an operationally focused employee engagement steering committee, three items this initiative have focused on are the Secretary honoring over 300 employees at a recent award ceremony.    This was the first one that was held in over 6 years. The Secretary has directed component leadership to host appropriate ceremonies and events to honor the contributions of their employees and DHS partners,and we are doing this to acknowledge and recognize the fine work of our employees.    Our employees have asked for greater transparency in the Department's hiring process. We have posted personnel information on our internal Web site, provided helpful tips for managers that highlight how to lead a transparent hiring process,and we have made a concerted effort to more prominently post job opportunities.    Additionally, DHS is continuing to build a common leadership experience that begins at our on-boarding and continues throughout our leaders' careers. We will continue to emphasize our key executive programs, including the DHS Senior Executive Service Candidate Development Program and the Department's own Executive Capstone Program for new members of the senior executive service.    Moreover, the Secretary and the Deputy Secretary are committed to personally hearing from our employees. Both of our senior leaders hold regular meetings with rank-and-file employees as well as with supervisors, managers, and executives when visiting field offices or in video conferences. In these meetings, they're listening to the concerns and suggestions of our employees across the country.    Furthermore, the Deputy Secretary regularly engages with our union partners, hearing their feedback and concerns. Building the Department our employees deserve is also about finding better ways to do business and building opportunities for them to succeed.    We thank Congress and this committee, particularly Chairman Chaffetz, for last year's passage of the Border Patrol Agent Pay Reform Act. This legislation is an excellent example of finding a better way to do business, as it replaces the administratively uncontrollable overtime model with a new and sound process for ensuring that our Border Patrol personnel are properly paid for their work.    We are leaning forward to implement actions that we believe will make a lasting and valuable difference to our employees. In the words of Secretary Johnson, we must inject a new energy into DHS, and we are working diligently to do just that. Through our efforts, we hope to enhance the work experience and honor the contributions of our hard-working and dedicated workforce.    Thank you again for supporting our employees who are protecting all of us each and every day. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Ms. Emerson, thank you for your testimony.    And I will say thank you for the energy that I witnessed just in the meeting prior to this. And I look forward to working with you in the months and years to come.    Mr. Goldenkoff, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Goldenkoff</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goldenkoff. Chairman Meadows, Ranking Member Connolly, and members of the subcommittee, thank you for the opportunity to be here today to discuss strengthening Federal employee engagement.    A growing body of research on both private and public sector organizations has concluded that employee engagement, which is defined as the heightened sense of purpose and commitment employees feel towards their employer and its mission, can generate such benefits as increased productivity, higher customer service, and less absenteeism. Simply put, engagement is not about happy employees. It's about effective, high-quality, and responsive government.    However, as was noted here today, government-wide levels of employee engagement have declined 4 percentage points, from 67 percent in 2011 to 63 percent in 2014, as measured by OPM's Federal Employee Viewpoint Survey and a score OPM derives from the survey called the Employee Engagement Index, or EEI.    Recognizing the connection between engagement levels and organizational performance, the administration has called on agencies to strengthen employee engagement. For example, agency leaders are to be held accountable for making employee engagement an integral part of their performance management systems.    In addition, as part of their annual performance plans and appraisals, each member of the senior executive service will be responsible for improving employee engagement within their organization and for creating inclusive work environments.    As requested, my remarks today will focus first on government-wide trends in employee engagement from 2006 through 2014;second, various practices that can strengthen engagement; and, third, certain limitations of the EEI that will be important for agency managers and leaders to consider as they use this metric to assess and improve engagement with their own organizations.    Our work indicates that improving employee engagement, especially during challenging fiscal times, is a difficult, but doable, task. The key is to understand and act on the drivers of engagement, both government-wide and agency-specific, and weave those practices into the everyday fabric of agency culture.    With respect to government-wide engagement trends, it's important to note that the majority of Federal agencies actually defied the recent government-wide downward trend in engagement levels and sustained or increased their scores. As one example, from 2013 to 2014, 3 of 47 agencies saw an increase in their engagement scores, 31 held steady, and 13 declined.    The decrease in government-wide engagement is the result of several large agencies, such as DHS and DOD, bringing down the overall average. Employee perceptions of leadership are also pulling down the government-wide average.    Of the three components that comprise the engagement index--employees' perceptions of agency leaders, their perceptions of supervisors, and employees' intrinsic work experiences--agency leadership has consistently received the lowest score and, at times, was about 20 percentage points lower than the other two components.    Our analysis of the Employee Viewpoint Survey identified six key practices that were consistent drivers of higher engagement levels, namely, having constructive performance conversations, providing opportunities for career development and training, supporting a good work-life balance, creating an inclusive work environment, employee involvement in work-related decisions, and good communication from management.    These practices were associated with higher engagement scores government-wide by agency and by selected employee characteristics and, therefore, could be starting points for agency efforts to improve engagement.    Although OPM provides a range of tools and guidance to help agencies analyze their engagement scores, the EEI data itself has limitations that agencies need to be aware of. For example, OPM does not report whether changes to an agency's engagement score is statistically significant, which could lead agencies to misinterpret their results.    Moreover, the way in which OPM calculates the engagement index does not enable agencies to analyze the drivers of engagement for their organization.    Given these and other limitations, agencies will need to supplement their engagement scores with other information such as workforce analytics and facilitated discussions with employees.    In conclusion, to improve performance, agencies must make strengthening and sustaining employee engagement an integral part of their organizational culture and not simply an isolated set of practices.    Put another way, if a talented workforce is the engine of productivity and mission accomplishment, then a workplace that fosters high levels of employee engagement is the fuel that powers that engine.    This concludes my prepared remarks. And I would be happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -376,9 +358,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman. You can always count on me to be patient.    Mr. Chairman, actually, I very much appreciate this hearing. And just to put in hearing--sorry. To put in context my appreciation for the hearing, no matter how you look at it, employees of the Federal Government have felt under special criticism, particularly from the Congress. I mean, there's no gain saying this. In fact, yesterday some of us were on the floor as there was a--by the way, there was some good bills on the floor during tax day, and then there were some bills that were very demoralizing. I went to the floor to speak to one on tax filings where the Federal Government workers have the best tax filings in the country, and, sure, they're being paid by the Federal Government, but they took a lashing even though they are in place, absolutely in place, very--very good and effective ways to deal with those tiny numbers who have not fully paid their Federal taxes.    So, to be lashed when you are the best, I don't know what you have to do. And we are seeing a generation which may be the golden generation of Federal employees. These employees who came in after JFK. These people who were the best and the brightest who decided to give it all to the Federal Government when they could have been everywhere, and if you want to see just good they are, there are annual prizes. And these people have invented things that if they'd invented them in the private sector, they would be millionaires by now. Discovered all kinds of health benefits. It's quite amazing. I go to this ceremony every year.    I'm particularly interested in the Department of Homeland Security, Ms. Emerson, because the last agency in the country perhaps we need to have last--rated last is this high security agency within this--which in this very room we created in order to secure the homeland. Now, some of the reasons are quite obvious. I mean, we just finished having a late budget fight when everybody else in the Federal Government was funded except your security agency. Imagine how that would make you feel if you work for one of those agencies. And over nothing. Had to give up in the end. So why do such a fight. I don't even want to go into the sequestration, and to not having--and to the continuing cuts on--in pay. So I think everybody ought to understand that there's a wonder that there's anything approaching good morale.    But when you look at the Department of Homeland Security, which ranks near the bottom and is so important to every American, how would you explain, Ms. Emerson, its low ranking?</t>
   </si>
   <si>
@@ -424,9 +403,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chair.    Mr. Ferriero, could you tell me, what is the mission statement for your agency?</t>
   </si>
   <si>
@@ -520,9 +496,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Okay. First of all, I want to thank the chairman and the ranking member for holding this hearing. I think it's very important because we have the finest workforce in the world. Our Federal Government is superb, and that morale is low is very, very troubling to me from the reports that the chairman was able to review personally on it.    I have worked on the city and state level in New York in the bureaucracy, and everyone I worked with were very dedicated, very hard working, as are our Federal employees, and I was amazed when I came to the Federal Government to see how very professional this government is in their work. There's always room for improvement, but it's extremely professional. And I believe some of the problems is that people attack Federal employees all the time, and it seems like every time we need to find some money, we take it out of Federal employees.    And instead of leading the country with work/family balance, which the President has spoken about and which one of your reports showed from GAO that work/family balance is a very important part, you are dragging behind the private sector tremendously, and I will give you two examples, and I think that, Chairman Meadows, these are things we can work on together that don't cost money. I know that's the first thing with the Republican party. I can't spend a dime, but can make things work better, and I'll give you two bills that the President actually--and I was very thrilled that he mentioned them in his State of the Union address.    One is paid leave for the birth of a child. I've had this bill in for a number of years. It passed the House once. Never passed the Senate. The President has endorsed it. GAO did a report, as did OMB, that it would not cost any money. And in the report that I did, and actually even wrote about it in a book, Rumors of Our Progress Have Been Greatly Exaggerated, we are the only country in the world, save two, that does not provide paid leave for the birth of a child. The two that do not provide it is Lesotho and Papua, New Guinea. And in the report they said the birth of a child for 2 weeks paid leave would be--the work would be picked up by other fellow employees helping out. Granted it would be more work for them, but you're not going to hire another person for it, but it's something that we can work together and make happen in a positive way.    I will tell you, I have had Federal employees call me on is this bill passing. I want to time the birth of my child around the passage of it because in our family I cannot afford to lose workweeks and pay for the birth of a child. I think that's a concrete step that we can take to show Federal employees we value their work. Most--all Fortune 500s, most companies have this, but the Federal Government does not.    Another--and I want Trey Gowdy to hear this, because he's from a conservative state and I'm from a liberal one. If we ever teamed up, we might be able to get some of these things done.    That bill should pass. Issa said he's for it. Let's take a look at it. Let's see if we can pass that bill.    Secondly is work/family balance. And as a mother who raised two children, I can't tell you how distressing it is if you have a doctor's appointment or your child's home sick and you have to be at the office.    Now, what the Work/Family Balance Bill does, which was supported by Labor, and it was authored by myself and former Senator Kennedy, and based on policies that were put in place in England, it merely allows an employee to go to their HR advisor, human resources advisor, and ask about work/family balance items. And with the guarantee that you will not be fired for asking about it. And many people are very terrified of being fired. They need their jobs.    I've been in the same position in my own life, and I can tell you when I had a child, I went to my HR and asked about family leave, and they said: There is no leave policy. Women just leave. When are you leaving? I said: I have no intention to leave. I'm coming back. But I was terrified that I would be fired because I was going to become a mother.    And as a country that talks about family values as the most important thing in our country, if you look at our policies, they're really not there. We could pass paid leave easily, and we could pass--we could pass work/family balance very easily. Does not cost any money. You work it out with your HR advisor, and if it works within the timeframe and you can get the work done, then it can work out.    Now, if have you a highly motivated worker, which I think the Federal employee--employees are, they make a choice to serve this great country. What an honor to serve in the Archives. On the archives on this greatest democracy. This great country. To preserve them.    We in New York have digitized our main libraries so that everyone in the country can access our books. Everyone in the country should be accessing what we have in our great archives. To see the original Declaration of Independence. The original things that are part of our country. And I read that that hasn't happened. You should go back to your office, work with your team, make it happen, and report back to this committee every month on how fast you're working to digitize this system so that every American--believe me. Your workforce will be so motivated over the great goal of having this trove of information.    To protect the greatest defender of democracy and human rights in the world, what a privilege to work at the Homeland Security Department. What a privilege. And if you have clear guidelines, you should make them go to the 9/11 Museum and hear the stories of the devastation. Hear the stories from the SEALS that risked their lives. They thought they were going to die when they went out to kill Osama bin Laden, but they did that to protect this country, to make sure if anyone did this--killed an innocent American, that we aren't going to forget, we're going to get them. What a story to tell.    I'm telling you, you take a day. Take them down to that museum. Have them study it. They will come back so motivated on the goal that they have to protect Americans and this great country. We have such an opportunity.    Now my time is expired, unfortunately. I'm just warming up.</t>
   </si>
   <si>
@@ -544,9 +517,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman. And I want to thank you for your hard work on this issue and so many other issues on the Oversight Committee, and I do want to say that I not only have great personal affection for the gentlelady from New York, but I also have great respect for her, and I would welcome every opportunity to work with her on whatever issue she is working on.    Ms. Emerson, with--I want to follow up on what District Attorney Buck brought up with respect to--to your place of employment. Do you want to hazard a guess why women and men go into law enforcement?</t>
   </si>
   <si>
@@ -703,9 +673,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes. Good morning, and thank you, Mr. Chairman.    You know, I'm interested in the impact that these reports have and show. Well, rather what they show about the low morale among employees. And specifically, low morale to me is an outcome of leadership and an outcome of mechanisms that have been put in place for employees to feel that the workplace is a great place to work.    Mr. Ehrlich, I wanted to ask you about employees repeatedly expressing concern that the leaders aren't responsible stewards of their positions, and that they don't listen to employees' concerns. That's something that's been in the report.    How do you think employees can expect to best fulfill their work requirements when they don't feel that their leaders are not steering them in the right direction or don't understand the jobs that they themselves have?</t>
   </si>
   <si>
@@ -769,9 +736,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Okay. I'll ask a couple questions here, Mr. Ferriero. About how many employees do you have at the National Archives?</t>
   </si>
   <si>
@@ -887,9 +851,6 @@
   </si>
   <si>
     <t>400074</t>
-  </si>
-  <si>
-    <t>Wm. Lacy Clay</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and let me thank all the witnesses for being here today.    Agency leaders can and must use the resources at their disposal to build inclusive, motivating, and productive work environments. However, we must recognize that Congress has repeatedly asked these agencies to do more with less. This is a problem within itself and no doubt prevents agencies from operating at their full potential.    Mr. Ferriero, according to a recent NARA staffing report, NARA's Federal Record Center Holdings have grown from 14.4 million cubic Federal--feet of records in 1985 to 29.5 million cubic feet in 2013. Despite a doubling in the workload, you have about half the employees you had in 1985.    Has NARA received sufficient funding to keep pace with the rapidly increasing volume of documents under it's management?</t>
@@ -1339,11 +1300,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1365,11 +1324,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1389,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1417,11 +1372,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1441,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1469,11 +1420,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1493,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1521,11 +1468,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1545,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1573,11 +1516,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1597,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1625,11 +1564,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1649,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1677,11 +1612,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1701,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1729,11 +1660,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1753,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1781,11 +1708,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1805,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1833,11 +1756,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1857,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1885,11 +1804,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1909,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1937,11 +1852,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1961,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1989,11 +1900,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2013,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2041,11 +1948,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2065,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2093,11 +1996,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2117,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2143,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2171,11 +2068,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2195,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2221,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2247,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2273,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2299,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2325,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2351,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2377,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2403,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2429,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2455,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2481,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2507,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2533,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2559,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2585,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2611,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2637,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2663,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2689,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2715,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2741,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2767,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2793,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2819,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2845,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2871,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2897,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2923,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2951,11 +2788,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2975,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3003,11 +2836,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3027,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3055,11 +2884,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3079,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3107,11 +2932,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3131,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3159,11 +2980,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3183,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3211,11 +3028,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3235,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3263,11 +3076,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3287,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3315,11 +3124,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3339,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3367,11 +3172,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3391,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3419,11 +3220,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3443,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3471,11 +3268,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3495,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3523,11 +3316,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3547,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3575,11 +3364,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3599,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3627,11 +3412,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3651,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3679,11 +3460,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3703,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3731,11 +3508,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3757,11 +3532,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3781,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3809,11 +3580,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3833,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3861,11 +3628,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3885,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3913,11 +3676,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3937,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3965,11 +3724,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3989,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4015,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4041,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
-      </c>
-      <c r="G106" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4067,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4093,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4119,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4145,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>120</v>
-      </c>
-      <c r="H110" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4171,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4197,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4223,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4249,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4275,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4301,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
-      </c>
-      <c r="G116" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4329,11 +4060,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4353,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4379,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4405,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4431,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4457,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4483,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4509,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>128</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>135</v>
-      </c>
-      <c r="G124" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4535,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4561,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4587,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4613,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4639,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4665,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4691,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4717,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4743,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4769,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
-      </c>
-      <c r="G134" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4795,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4821,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G136" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4847,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4873,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>135</v>
-      </c>
-      <c r="G138" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4899,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4925,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>135</v>
-      </c>
-      <c r="G140" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4951,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4977,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>135</v>
-      </c>
-      <c r="G142" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5003,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5029,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
-      </c>
-      <c r="G144" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5055,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5081,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>135</v>
-      </c>
-      <c r="G146" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5107,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5133,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>135</v>
-      </c>
-      <c r="G148" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5161,11 +4828,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5185,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>167</v>
-      </c>
-      <c r="G150" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5213,11 +4876,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5237,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>167</v>
-      </c>
-      <c r="G152" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5265,11 +4924,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5289,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>167</v>
-      </c>
-      <c r="G154" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5317,11 +4972,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5341,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>175</v>
-      </c>
-      <c r="G156" t="s">
-        <v>176</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5367,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5393,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" t="s">
-        <v>176</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5419,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5445,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
-      </c>
-      <c r="G160" t="s">
-        <v>176</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5471,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5497,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>175</v>
-      </c>
-      <c r="G162" t="s">
-        <v>176</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5523,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5549,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5575,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>175</v>
-      </c>
-      <c r="G165" t="s">
+        <v>166</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
         <v>176</v>
-      </c>
-      <c r="H165" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5603,11 +5236,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5627,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5655,11 +5284,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5679,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5707,11 +5332,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5731,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5759,11 +5380,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5783,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5811,11 +5428,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5835,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5863,11 +5476,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5887,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5915,11 +5524,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5939,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5967,11 +5572,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5991,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6019,11 +5620,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6043,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6071,11 +5668,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6095,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6123,11 +5716,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6147,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6175,11 +5764,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6199,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6227,11 +5812,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6251,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6279,11 +5860,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6303,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6331,11 +5908,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6355,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6383,11 +5956,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6407,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6435,11 +6004,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6459,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>21</v>
-      </c>
-      <c r="G199" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6487,11 +6052,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6511,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>21</v>
-      </c>
-      <c r="G201" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6539,11 +6100,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6563,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6591,11 +6148,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6615,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>21</v>
-      </c>
-      <c r="G205" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6643,11 +6196,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6667,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
-      </c>
-      <c r="G207" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6695,11 +6244,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6719,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>228</v>
-      </c>
-      <c r="G209" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6745,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6771,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>228</v>
-      </c>
-      <c r="G211" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6797,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6823,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>228</v>
-      </c>
-      <c r="G213" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6849,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>21</v>
-      </c>
-      <c r="G214" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6875,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>228</v>
-      </c>
-      <c r="G215" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6901,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6927,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>228</v>
-      </c>
-      <c r="G217" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6953,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6979,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>228</v>
-      </c>
-      <c r="G219" t="s">
+        <v>218</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
         <v>229</v>
-      </c>
-      <c r="H219" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7005,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>21</v>
-      </c>
-      <c r="G220" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7031,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>228</v>
-      </c>
-      <c r="G221" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7057,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7083,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>228</v>
-      </c>
-      <c r="G223" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7109,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>21</v>
-      </c>
-      <c r="G224" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7135,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>228</v>
-      </c>
-      <c r="G225" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7161,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>21</v>
-      </c>
-      <c r="G226" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7187,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>228</v>
-      </c>
-      <c r="G227" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7215,11 +6724,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7239,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>250</v>
-      </c>
-      <c r="G229" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7265,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
-      </c>
-      <c r="G230" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7291,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>250</v>
-      </c>
-      <c r="G231" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7317,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
-      </c>
-      <c r="G232" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7343,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>250</v>
-      </c>
-      <c r="G233" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7369,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>21</v>
-      </c>
-      <c r="G234" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7395,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>250</v>
-      </c>
-      <c r="G235" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7421,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>21</v>
-      </c>
-      <c r="G236" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7447,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>250</v>
-      </c>
-      <c r="G237" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7473,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>21</v>
-      </c>
-      <c r="G238" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7499,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>250</v>
-      </c>
-      <c r="G239" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7525,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>21</v>
-      </c>
-      <c r="G240" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7551,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>250</v>
-      </c>
-      <c r="G241" t="s">
+        <v>239</v>
+      </c>
+      <c r="G241" t="s"/>
+      <c r="H241" t="s">
         <v>251</v>
-      </c>
-      <c r="H241" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7577,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>21</v>
-      </c>
-      <c r="G242" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7603,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>250</v>
-      </c>
-      <c r="G243" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7629,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>21</v>
-      </c>
-      <c r="G244" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7655,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>250</v>
-      </c>
-      <c r="G245" t="s">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7683,11 +7156,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7707,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>21</v>
-      </c>
-      <c r="G247" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7735,11 +7204,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7759,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>21</v>
-      </c>
-      <c r="G249" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7785,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>21</v>
-      </c>
-      <c r="G250" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7811,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>21</v>
-      </c>
-      <c r="G251" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7837,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>21</v>
-      </c>
-      <c r="G252" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7865,11 +7324,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7889,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>21</v>
-      </c>
-      <c r="G254" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7917,11 +7372,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7941,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>21</v>
-      </c>
-      <c r="G256" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7969,11 +7420,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7993,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>21</v>
-      </c>
-      <c r="G258" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8021,11 +7468,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8045,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>21</v>
-      </c>
-      <c r="G260" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8073,11 +7516,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8097,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>21</v>
-      </c>
-      <c r="G262" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8125,11 +7564,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>12</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8149,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>21</v>
-      </c>
-      <c r="G264" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8177,11 +7612,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8201,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>21</v>
-      </c>
-      <c r="G266" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8229,11 +7660,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8253,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>21</v>
-      </c>
-      <c r="G268" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8281,11 +7708,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8305,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>290</v>
-      </c>
-      <c r="G270" t="s">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8331,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>21</v>
-      </c>
-      <c r="G271" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8357,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>290</v>
-      </c>
-      <c r="G272" t="s">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8383,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>21</v>
-      </c>
-      <c r="G273" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8409,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>290</v>
-      </c>
-      <c r="G274" t="s">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8437,11 +7852,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8461,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>290</v>
-      </c>
-      <c r="G276" t="s">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8487,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>21</v>
-      </c>
-      <c r="G277" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8513,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>290</v>
-      </c>
-      <c r="G278" t="s">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8539,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>21</v>
-      </c>
-      <c r="G279" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8565,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>290</v>
-      </c>
-      <c r="G280" t="s">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8591,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>21</v>
-      </c>
-      <c r="G281" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8617,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>290</v>
-      </c>
-      <c r="G282" t="s">
+        <v>278</v>
+      </c>
+      <c r="G282" t="s"/>
+      <c r="H282" t="s">
         <v>291</v>
-      </c>
-      <c r="H282" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8645,11 +8044,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8669,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>167</v>
-      </c>
-      <c r="G284" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8695,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>167</v>
-      </c>
-      <c r="G285" t="s">
-        <v>168</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8723,11 +8116,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
